--- a/CashFlow/LUV_cashflow.xlsx
+++ b/CashFlow/LUV_cashflow.xlsx
@@ -959,19 +959,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>1273000000.0</v>
+        <v>1456000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1354000000.0</v>
+        <v>231000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1620000000.0</v>
+        <v>473000000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>1411000000.0</v>
+        <v>554000000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>986000000.0</v>
+        <v>-736000000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>298000000.0</v>
